--- a/pred_ohlcv/54_21/2020-01-13 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7222.505059039999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9514.93055904</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12316.93055904</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14316.93055904</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-15044.93055904</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-179448.68718206</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-186368.71308206</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-188495.8976820601</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-211630.82798206</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-211417.96888206</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-212257.2224820601</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-234304.7748820601</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-233731.7624820601</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-232097.6751820601</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-232133.6751820601</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-232169.6751820601</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-233716.3438820601</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-235135.4438820601</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-234968.8905492401</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-236468.8905492401</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7222.505059039999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14316.93055904</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-15044.93055904</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-30982.99178206</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-179448.68718206</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-189275.9730820601</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-193377.3976820601</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-188495.8976820601</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-189795.8976820601</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-188881.7941820601</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-211417.96888206</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-212259.2683820601</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-212257.2224820601</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-212782.2224820601</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-234304.7748820601</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-234302.7199820601</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-233335.1280820601</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-233731.7624820601</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-232097.6751820601</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-232133.6751820601</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-232169.6751820601</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-233716.3438820601</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-235135.4438820601</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-234968.8905492401</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-236468.8905492401</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
